--- a/TrainingPlan.xlsx
+++ b/TrainingPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TACSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{155FE827-5471-41BB-AB17-452C768D06EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CBA086-0BE2-4CA1-9A9A-59FAD16209AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="24000" windowHeight="14685" xr2:uid="{40A46B56-8358-4E8B-8AAA-5F87FB2382D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Hidden Dim</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308A26EE-0729-484E-9BC9-9D3D86F02EAE}">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -433,7 +437,7 @@
     <col min="3" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -455,8 +459,11 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -478,8 +485,11 @@
       <c r="G3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -501,8 +511,11 @@
       <c r="G4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -524,8 +537,11 @@
       <c r="G5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -547,8 +563,11 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -570,8 +589,11 @@
       <c r="G7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -593,8 +615,11 @@
       <c r="G8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -616,8 +641,11 @@
       <c r="G9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -639,8 +667,11 @@
       <c r="G10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -662,8 +693,11 @@
       <c r="G11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -685,8 +719,11 @@
       <c r="G12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -708,8 +745,11 @@
       <c r="G13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -731,8 +771,11 @@
       <c r="G14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -754,8 +797,11 @@
       <c r="G15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -777,8 +823,11 @@
       <c r="G16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -799,6 +848,9 @@
       </c>
       <c r="G17">
         <v>5</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
